--- a/app/data/comparison sets/parameters.xlsx
+++ b/app/data/comparison sets/parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexg\OneDrive\Desktop\Ecodata\Repos\mars_rhino\app\data\comparison sets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89E376B-FC97-440E-8EF1-FA7E310CCCBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E907C4A6-ECBF-4D6E-81C2-CEB058EF5A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="50">
   <si>
     <t>parameter</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>White Teak_Calendar</t>
+  </si>
+  <si>
+    <t>monthly_income_threshold_rp</t>
   </si>
 </sst>
 </file>
@@ -521,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -578,6 +581,14 @@
       </c>
       <c r="B6">
         <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="1">
+        <v>25000000</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/comparison sets/parameters.xlsx
+++ b/app/data/comparison sets/parameters.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexg\OneDrive\Desktop\Ecodata\Repos\mars_rhino\app\data\comparison sets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E907C4A6-ECBF-4D6E-81C2-CEB058EF5A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B37110-1CA4-4AB8-9B16-B6653210B181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="64305" yWindow="3075" windowWidth="23265" windowHeight="12795" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="simulation_control" sheetId="1" r:id="rId1"/>
     <sheet name="crop_global_parameters" sheetId="4" r:id="rId2"/>
     <sheet name="farm_layout" sheetId="2" r:id="rId3"/>
     <sheet name="farm_layout full" sheetId="6" r:id="rId4"/>
-    <sheet name="crop sheet lookup" sheetId="5" r:id="rId5"/>
+    <sheet name="crop_sheet_lookup" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -526,7 +526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1363,8 +1363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C074F89E-2346-4E9E-B992-B11A467BD05A}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
